--- a/Python/output/case-study/FC_SA_rolling2SSPresults.xlsx
+++ b/Python/output/case-study/FC_SA_rolling2SSPresults.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA51B9DA-CFEB-A74D-AC32-7B7A0205B3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8C3A8E-BA29-494C-AF03-7F69C8A6CB83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8780" yWindow="4100" windowWidth="27640" windowHeight="16940" xr2:uid="{351411C8-183A-5D43-97B9-15E839B54A9B}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -175,6 +175,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -521,8 +528,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -901,7 +909,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,20 +938,20 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>0.25</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>5911747.8778816499</v>
-      </c>
-      <c r="E2">
-        <v>870989.297751053</v>
-      </c>
-      <c r="F2">
-        <v>413.24831986427301</v>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6354143.8099999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>874951.66200000001</v>
+      </c>
+      <c r="F2" s="1">
+        <v>411.62188600000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -957,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2831027.9922300898</v>
+        <v>3493959.5146977301</v>
       </c>
       <c r="E3">
-        <v>230100.60180322701</v>
+        <v>273327.308488118</v>
       </c>
       <c r="F3">
-        <v>426.28378200531</v>
+        <v>412.67241621017399</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -977,13 +985,13 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2327619.33181052</v>
+        <v>3022541.8612943301</v>
       </c>
       <c r="E4">
-        <v>160007.269257918</v>
+        <v>232997.056890748</v>
       </c>
       <c r="F4">
-        <v>438.074404001235</v>
+        <v>446.05003595352099</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -997,13 +1005,13 @@
         <v>2</v>
       </c>
       <c r="D5">
-        <v>2251854.0526235998</v>
+        <v>2909745.8072661599</v>
       </c>
       <c r="E5">
-        <v>124361.892614103</v>
+        <v>166157.863091576</v>
       </c>
       <c r="F5">
-        <v>437.22747492790199</v>
+        <v>449.49056077003399</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1017,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="D6">
-        <v>4346715.3934152601</v>
+        <v>4869677.8865810996</v>
       </c>
       <c r="E6">
-        <v>544154.00127556303</v>
+        <v>553444.34643558599</v>
       </c>
       <c r="F6">
-        <v>11784.2172849178</v>
+        <v>11947.290517807</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -1037,13 +1045,13 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>2919696.8440298098</v>
+        <v>3521249.2595488201</v>
       </c>
       <c r="E7">
-        <v>304641.48403875</v>
+        <v>310804.332539158</v>
       </c>
       <c r="F7">
-        <v>16830.890353917999</v>
+        <v>17396.390844821901</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -1057,13 +1065,13 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2537938.6448413702</v>
+        <v>3108563.21375367</v>
       </c>
       <c r="E8">
-        <v>329880.306826744</v>
+        <v>333850.18646523199</v>
       </c>
       <c r="F8">
-        <v>21478.810001850099</v>
+        <v>20989.215353012001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -1077,13 +1085,13 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>2329744.8870940902</v>
+        <v>2936875.2954362398</v>
       </c>
       <c r="E9">
-        <v>255022.545668131</v>
+        <v>262621.589936417</v>
       </c>
       <c r="F9">
-        <v>21777.603873014399</v>
+        <v>21075.244763135899</v>
       </c>
     </row>
   </sheetData>
